--- a/NformTester/NformTester/Keywordscripts/600.30.30.40_EditAreaInTreeUnderViews.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.30.30.40_EditAreaInTreeUnderViews.xlsx
@@ -1260,7 +1260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7750" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7750" uniqueCount="878">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3915,6 +3915,10 @@
   </si>
   <si>
     <t>VerifyTxtfileValues</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4484,8 +4488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5240,7 +5244,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>832</v>
+        <v>877</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>876</v>
@@ -5266,7 +5270,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>832</v>
+        <v>877</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>800</v>
